--- a/medicine/Enfance/Diana_Wynne_Jones/Diana_Wynne_Jones.xlsx
+++ b/medicine/Enfance/Diana_Wynne_Jones/Diana_Wynne_Jones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diana Wynne Jones, née le 16 août 1934 à Londres et morte le 26 mars 2011 à Bristol, est une autrice britannique de romans fantastiques pour enfants et adultes.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diana Wynne Jones est née à Londres de parents enseignants et est l'aînée de trois sœurs. Bien que dyslexique, elle est bonne élève à l'école et elle s'intéresse à la lecture. Elle décide tôt de devenir écrivain et commence à 13 ans à écrire des histoires pour ses sœurs.
 Diana Wynne Jones rentre à St Anne's College d'Oxford en 1953 pour étudier l'anglais, notamment auprès des auteurs-professeurs C. S. Lewis et J. R. R. Tolkien.
-En 1956, elle se marie à John Burrow avec qui elle aura trois fils[1].
-Elle meurt d'un cancer le 26 mars 2011, à 76 ans[2].
+En 1956, elle se marie à John Burrow avec qui elle aura trois fils.
+Elle meurt d'un cancer le 26 mars 2011, à 76 ans.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Diana Wynne Jones a écrit une trentaine de livres, majoritairement des romans de fantasy qui sont édités en traduction française par les éditions Gallimard et Ynnis.
-Ses deux séries, Dalemark mais surtout Chrestomanci, à la fin des années 1970 sont considérées comme un nouvel élan pour le sous-genre de la fantasy pour la jeunesse[3]. Les chercheurs affirment que son écriture est celle du renouveau, autant dans ses sujets que dans sa manière de concevoir la littérature fantasy. Elle innove par ses stratégies narratives et en s'éloignant des utilisations classiques des sources mythologiques et des œuvres canoniques. Elle puise notamment de nouvelles inspirations dans la mythologie arabe et les Contes des Mille et Une Nuits pour Le château des nuages[4]. Elle met en scène des histoires de révolutions et rébellions contre le pouvoir en place, la renaissance de cités ou empires tombés[5]. Certains de ces récits proposent aussi une réflexion sous-jacente sur le colonialisme et l'impérialisme (Le Terrible Seigneur des Ténèbres)[6].
-Elle meurt en laissant inachevé son roman The Island of Chaldea. Sa sœur Ursula - elle aussi autrice de littérature jeunesse - est chargée de finir ce livre à partir du manuscrit laissé par Diana. Elle a fait en sorte de suivre au plus près le style de Diana et d'assurer l'unité du livre pour que l'on ne puisse sentir de différence d'écriture. The Island of Chaldea, le dernier livre de Diana Wynne Jones est finalement publié en 2014 par Harper Collins Children's Books et n'a pas à ce jour de traduction française[7].
-Outre les nombreux prix gagnés par ses livres, elle a reçu, pour l'ensemble de son œuvre, le prix pour Life Achievement décerné par la World Fantasy Convention en 2007[8].
+Ses deux séries, Dalemark mais surtout Chrestomanci, à la fin des années 1970 sont considérées comme un nouvel élan pour le sous-genre de la fantasy pour la jeunesse. Les chercheurs affirment que son écriture est celle du renouveau, autant dans ses sujets que dans sa manière de concevoir la littérature fantasy. Elle innove par ses stratégies narratives et en s'éloignant des utilisations classiques des sources mythologiques et des œuvres canoniques. Elle puise notamment de nouvelles inspirations dans la mythologie arabe et les Contes des Mille et Une Nuits pour Le château des nuages. Elle met en scène des histoires de révolutions et rébellions contre le pouvoir en place, la renaissance de cités ou empires tombés. Certains de ces récits proposent aussi une réflexion sous-jacente sur le colonialisme et l'impérialisme (Le Terrible Seigneur des Ténèbres).
+Elle meurt en laissant inachevé son roman The Island of Chaldea. Sa sœur Ursula - elle aussi autrice de littérature jeunesse - est chargée de finir ce livre à partir du manuscrit laissé par Diana. Elle a fait en sorte de suivre au plus près le style de Diana et d'assurer l'unité du livre pour que l'on ne puisse sentir de différence d'écriture. The Island of Chaldea, le dernier livre de Diana Wynne Jones est finalement publié en 2014 par Harper Collins Children's Books et n'a pas à ce jour de traduction française.
+Outre les nombreux prix gagnés par ses livres, elle a reçu, pour l'ensemble de son œuvre, le prix pour Life Achievement décerné par la World Fantasy Convention en 2007.
 </t>
         </is>
       </c>
